--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Dropbox\2_WORK\EperLab\2_Herramientas\_multipurpose_model_fmwk_v2\t1_confection\A2_Extra_Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RD_Model_v7_FUNCIONAL\A2_Extra_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0450025-C5FF-4EC2-A30C-7B94EE025FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732968A6-13B6-4DA4-83D1-0B009265D33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projections" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Variable</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Flat after final year</t>
   </si>
   <si>
-    <t>Interpolate to final value</t>
-  </si>
-  <si>
-    <t>Flat</t>
-  </si>
-  <si>
     <t>User defined</t>
   </si>
   <si>
@@ -70,6 +64,9 @@
   </si>
   <si>
     <t>Variation_km_Freight</t>
+  </si>
+  <si>
+    <t>Interpolate to final value</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -420,8 +417,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,18 +700,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -726,27 +725,27 @@
         <v>4</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>2019</v>
       </c>
       <c r="B2" s="10">
-        <v>2.2999999999999998</v>
+        <v>3.87</v>
       </c>
       <c r="C2" s="9">
-        <v>0.91600000000000004</v>
+        <v>1.3676375924121529</v>
       </c>
       <c r="D2" s="9">
-        <v>1.0149999999999999</v>
+        <v>1.3676375924121529</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -755,399 +754,625 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2020</v>
       </c>
       <c r="B3" s="11">
-        <v>-4.0999999999999996</v>
+        <v>-1.52</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>4.9676317712062188</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.9676317712062188</v>
+      </c>
       <c r="E3" s="1">
         <v>-25</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F3" s="3">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2021</v>
       </c>
       <c r="B4" s="11">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>3.6846091069551035</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.6846091069551035</v>
+      </c>
       <c r="E4" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>15.4701</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15.4701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2022</v>
       </c>
       <c r="B5" s="11">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>1.8249376703189928</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.8249376703189928</v>
+      </c>
       <c r="E5" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>15.4701</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15.4701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2023</v>
       </c>
       <c r="B6" s="11">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C6" s="1">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>0.42189767957684737</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.42189767957684737</v>
+      </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>2024</v>
       </c>
       <c r="B7" s="11">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C7" s="1">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>0.92088010192095893</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.92088010192095893</v>
+      </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2025</v>
       </c>
       <c r="B8" s="11">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.89278567204661297</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.89278567204661297</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>2026</v>
       </c>
       <c r="B9" s="11">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.81630906739337861</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.81630906739337861</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2027</v>
       </c>
       <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.80385255732270267</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.80385255732270267</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>2028</v>
       </c>
       <c r="B11" s="11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.82762924483373213</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.82762924483373213</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>2029</v>
       </c>
       <c r="B12" s="11">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.77295925238340446</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.77295925238340446</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>2030</v>
       </c>
       <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.74801212033253095</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.74801212033253095</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2031</v>
       </c>
       <c r="B14" s="11">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.65981300959634592</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.65981300959634592</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>2032</v>
       </c>
       <c r="B15" s="11">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.65610343967958151</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.65610343967958151</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>2033</v>
       </c>
       <c r="B16" s="11">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.65243534810705095</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.65243534810705095</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>2034</v>
       </c>
       <c r="B17" s="11">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.64880804306482964</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.64880804306482964</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>2035</v>
       </c>
       <c r="B18" s="11">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.64522084803894919</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.64522084803894919</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>2036</v>
       </c>
       <c r="B19" s="11">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.53180927189648453</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.53180927189648453</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>2037</v>
       </c>
       <c r="B20" s="11">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.52939677054941114</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.52939677054941114</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>2038</v>
       </c>
       <c r="B21" s="11">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.52700605851543281</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.52700605851543281</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>2039</v>
       </c>
       <c r="B22" s="11">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.52463684192550464</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.52463684192550464</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>2040</v>
       </c>
       <c r="B23" s="11">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.52228883217129085</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.52228883217129085</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>2041</v>
       </c>
       <c r="B24" s="11">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.41642258506401025</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.41642258506401025</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>2042</v>
       </c>
       <c r="B25" s="11">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.41494193654236122</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.41494193654236122</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>2043</v>
       </c>
       <c r="B26" s="11">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.41347178001922325</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.41347178001922325</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>2044</v>
       </c>
       <c r="B27" s="11">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.41201200436750923</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.41201200436750923</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>2045</v>
       </c>
       <c r="B28" s="11">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.41056250002403488</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.41056250002403488</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>2046</v>
       </c>
       <c r="B29" s="11">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.31416865698285579</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.31416865698285579</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>2047</v>
       </c>
       <c r="B30" s="11">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.31332515038434022</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.31332515038434022</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>2048</v>
       </c>
       <c r="B31" s="11">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3.5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.31248616109314387</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.31248616109314387</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>2049</v>
       </c>
       <c r="B32" s="11">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <v>3.5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.31165165291832875</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.31165165291832875</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
         <v>2050</v>
       </c>
       <c r="B33" s="12">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C33" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="4"/>
+        <v>0.3108215900544003</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.3108215900544003</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1160,16 +1385,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1177,41 +1402,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="20" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="s">
-        <v>11</v>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -1224,10 +1449,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BAD73B84EC2FBA4AB6031CFB79C3D0E0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="371947e8e2760f0f8e8f59c32e4ad2a0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4f98862-adfd-4d9c-a945-852f80f0eb51" xmlns:ns3="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a059f82d0b353b49693c069f8347eedf" ns2:_="" ns3:_="">
-    <xsd:import namespace="c4f98862-adfd-4d9c-a945-852f80f0eb51"/>
-    <xsd:import namespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1236,15 +1461,17 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -1253,7 +1480,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c4f98862-adfd-4d9c-a945-852f80f0eb51" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1266,55 +1493,67 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1333,7 +1572,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1350,8 +1589,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1450,9 +1689,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F107633-8F00-4D04-BD93-803245543E9C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02094605-7544-4CAB-9E33-B0E1A4D3CBB1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC1A3271-F1DB-463C-9D22-B0362002E090}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{352985E8-C38C-4E9A-A749-6DA499D91C98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RD_Model_v7_FUNCIONAL\A2_Extra_Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\JAMAICA_Models\1_3_4_Ele_Bld_Ind\A2_Extra_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732968A6-13B6-4DA4-83D1-0B009265D33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018769F2-535D-4A8C-AA0B-EF37F5D9A5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projections" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -125,13 +125,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -146,7 +161,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -161,7 +176,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -173,7 +188,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -186,92 +201,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -287,34 +216,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -326,7 +231,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -342,7 +249,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -351,13 +258,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -366,7 +288,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -378,7 +300,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -387,37 +309,71 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,679 +654,778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>2019</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>3.87</v>
       </c>
-      <c r="C2" s="9">
-        <v>1.3676375924121529</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1.3676375924121529</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="C2" s="1">
+        <v>0.82033058206360665</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.82033058206360665</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="8">
         <v>2020</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>-1.52</v>
       </c>
       <c r="C3" s="1">
-        <v>4.9676317712062188</v>
+        <v>16.0615888563757</v>
       </c>
       <c r="D3" s="1">
-        <v>4.9676317712062188</v>
+        <v>16.0615888563757</v>
       </c>
       <c r="E3" s="1">
         <v>-25</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>-25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="8">
         <v>2021</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>3.5</v>
       </c>
       <c r="C4" s="1">
-        <v>3.6846091069551035</v>
+        <v>5.2484323934653938</v>
       </c>
       <c r="D4" s="1">
-        <v>3.6846091069551035</v>
+        <v>5.2484323934653938</v>
       </c>
       <c r="E4" s="1">
         <v>15.4701</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>15.4701</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="8">
         <v>2022</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>3.5</v>
       </c>
       <c r="C5" s="1">
-        <v>1.8249376703189928</v>
+        <v>1.7973422358714601</v>
       </c>
       <c r="D5" s="1">
-        <v>1.8249376703189928</v>
+        <v>1.7973422358714601</v>
       </c>
       <c r="E5" s="1">
         <v>15.4701</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>15.4701</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="8">
         <v>2023</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>3.5</v>
       </c>
       <c r="C6" s="1">
-        <v>0.42189767957684737</v>
+        <v>0.62677003980945323</v>
       </c>
       <c r="D6" s="1">
-        <v>0.42189767957684737</v>
+        <v>0.62677003980945323</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="8">
         <v>2024</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>3.5</v>
       </c>
       <c r="C7" s="1">
-        <v>0.92088010192095893</v>
+        <v>0.61759489493420794</v>
       </c>
       <c r="D7" s="1">
-        <v>0.92088010192095893</v>
+        <v>0.61759489493420794</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="8">
         <v>2025</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>3.5</v>
       </c>
       <c r="C8" s="1">
-        <v>0.89278567204661297</v>
+        <v>0.60734390323095178</v>
       </c>
       <c r="D8" s="1">
-        <v>0.89278567204661297</v>
+        <v>0.60734390323095178</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="8">
         <v>2026</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>3.5</v>
       </c>
       <c r="C9" s="1">
-        <v>0.81630906739337861</v>
+        <v>0.59699859787590193</v>
       </c>
       <c r="D9" s="1">
-        <v>0.81630906739337861</v>
+        <v>0.59699859787590193</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="8">
         <v>2027</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>3.5</v>
       </c>
       <c r="C10" s="1">
-        <v>0.80385255732270267</v>
+        <v>0.58653606477015063</v>
       </c>
       <c r="D10" s="1">
-        <v>0.80385255732270267</v>
+        <v>0.58653606477015063</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="8">
         <v>2028</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>3.5</v>
       </c>
       <c r="C11" s="1">
-        <v>0.82762924483373213</v>
+        <v>0.57520014351278714</v>
       </c>
       <c r="D11" s="1">
-        <v>0.82762924483373213</v>
+        <v>0.57520014351278714</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="8">
         <v>2029</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>3.5</v>
       </c>
       <c r="C12" s="1">
-        <v>0.77295925238340446</v>
+        <v>0.56310063617112638</v>
       </c>
       <c r="D12" s="1">
-        <v>0.77295925238340446</v>
+        <v>0.56310063617112638</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="8">
         <v>2030</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>3.5</v>
       </c>
       <c r="C13" s="1">
-        <v>0.74801212033253095</v>
+        <v>0.55038880732004158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.74801212033253095</v>
+        <v>0.55038880732004158</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="8">
         <v>2031</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>3.5</v>
       </c>
       <c r="C14" s="1">
-        <v>0.65981300959634592</v>
+        <v>0.5376769784689569</v>
       </c>
       <c r="D14" s="1">
-        <v>0.65981300959634592</v>
+        <v>0.5376769784689569</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="8">
         <v>2032</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>3.5</v>
       </c>
       <c r="C15" s="1">
-        <v>0.65610343967958151</v>
+        <v>0.52496514961787211</v>
       </c>
       <c r="D15" s="1">
-        <v>0.65610343967958151</v>
+        <v>0.52496514961787211</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="8">
         <v>2033</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>3.5</v>
       </c>
       <c r="C16" s="1">
-        <v>0.65243534810705095</v>
+        <v>0.51225332076678742</v>
       </c>
       <c r="D16" s="1">
-        <v>0.65243534810705095</v>
+        <v>0.51225332076678742</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="8">
         <v>2034</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="7">
         <v>3.5</v>
       </c>
       <c r="C17" s="1">
-        <v>0.64880804306482964</v>
+        <v>0.49954149191570268</v>
       </c>
       <c r="D17" s="1">
-        <v>0.64880804306482964</v>
+        <v>0.49954149191570268</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="A18" s="8">
         <v>2035</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>3.5</v>
       </c>
       <c r="C18" s="1">
-        <v>0.64522084803894919</v>
+        <v>0.48682966306461795</v>
       </c>
       <c r="D18" s="1">
-        <v>0.64522084803894919</v>
+        <v>0.48682966306461795</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="A19" s="8">
         <v>2036</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <v>3.5</v>
       </c>
       <c r="C19" s="1">
-        <v>0.53180927189648453</v>
+        <v>0.47411783421353315</v>
       </c>
       <c r="D19" s="1">
-        <v>0.53180927189648453</v>
+        <v>0.47411783421353315</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="A20" s="8">
         <v>2037</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>3.5</v>
       </c>
       <c r="C20" s="1">
-        <v>0.52939677054941114</v>
+        <v>0.46140600536244841</v>
       </c>
       <c r="D20" s="1">
-        <v>0.52939677054941114</v>
+        <v>0.46140600536244841</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="A21" s="8">
         <v>2038</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="7">
         <v>3.5</v>
       </c>
       <c r="C21" s="1">
-        <v>0.52700605851543281</v>
+        <v>0.44869417651136362</v>
       </c>
       <c r="D21" s="1">
-        <v>0.52700605851543281</v>
+        <v>0.44869417651136362</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="8">
         <v>2039</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="7">
         <v>3.5</v>
       </c>
       <c r="C22" s="1">
-        <v>0.52463684192550464</v>
+        <v>0.43598234766027893</v>
       </c>
       <c r="D22" s="1">
-        <v>0.52463684192550464</v>
+        <v>0.43598234766027893</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="8">
         <v>2040</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="7">
         <v>3.5</v>
       </c>
       <c r="C23" s="1">
-        <v>0.52228883217129085</v>
+        <v>0.4232705188091942</v>
       </c>
       <c r="D23" s="1">
-        <v>0.52228883217129085</v>
+        <v>0.4232705188091942</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="8">
         <v>2041</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <v>3.5</v>
       </c>
       <c r="C24" s="1">
-        <v>0.41642258506401025</v>
+        <v>0.4105586899581094</v>
       </c>
       <c r="D24" s="1">
-        <v>0.41642258506401025</v>
+        <v>0.4105586899581094</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+      <c r="A25" s="8">
         <v>2042</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="7">
         <v>3.5</v>
       </c>
       <c r="C25" s="1">
-        <v>0.41494193654236122</v>
+        <v>0.39784686110702466</v>
       </c>
       <c r="D25" s="1">
-        <v>0.41494193654236122</v>
+        <v>0.39784686110702466</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="A26" s="8">
         <v>2043</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="7">
         <v>3.5</v>
       </c>
       <c r="C26" s="1">
-        <v>0.41347178001922325</v>
+        <v>0.38513503225593987</v>
       </c>
       <c r="D26" s="1">
-        <v>0.41347178001922325</v>
+        <v>0.38513503225593987</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
+      <c r="A27" s="8">
         <v>2044</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="7">
         <v>3.5</v>
       </c>
       <c r="C27" s="1">
-        <v>0.41201200436750923</v>
+        <v>0.37242320340485513</v>
       </c>
       <c r="D27" s="1">
-        <v>0.41201200436750923</v>
+        <v>0.37242320340485513</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
+      <c r="A28" s="8">
         <v>2045</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="7">
         <v>3.5</v>
       </c>
       <c r="C28" s="1">
-        <v>0.41056250002403488</v>
+        <v>0.35971137455377039</v>
       </c>
       <c r="D28" s="1">
-        <v>0.41056250002403488</v>
+        <v>0.35971137455377039</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+      <c r="A29" s="8">
         <v>2046</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="7">
         <v>3.5</v>
       </c>
       <c r="C29" s="1">
-        <v>0.31416865698285579</v>
+        <v>0.3469995457026856</v>
       </c>
       <c r="D29" s="1">
-        <v>0.31416865698285579</v>
+        <v>0.3469995457026856</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+      <c r="A30" s="8">
         <v>2047</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="7">
         <v>3.5</v>
       </c>
       <c r="C30" s="1">
-        <v>0.31332515038434022</v>
+        <v>0.33428771685160091</v>
       </c>
       <c r="D30" s="1">
-        <v>0.31332515038434022</v>
+        <v>0.33428771685160091</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+      <c r="A31" s="8">
         <v>2048</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="7">
         <v>3.5</v>
       </c>
       <c r="C31" s="1">
-        <v>0.31248616109314387</v>
+        <v>0.32157588800051612</v>
       </c>
       <c r="D31" s="1">
-        <v>0.31248616109314387</v>
+        <v>0.32157588800051612</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
+      <c r="A32" s="8">
         <v>2049</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="7">
         <v>3.5</v>
       </c>
       <c r="C32" s="1">
-        <v>0.31165165291832875</v>
+        <v>0.30886405914943099</v>
       </c>
       <c r="D32" s="1">
-        <v>0.31165165291832875</v>
+        <v>0.30886405914943099</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
         <v>2050</v>
       </c>
-      <c r="B33" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0.3108215900544003</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0.3108215900544003</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="B33" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>2051</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>2052</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>2053</v>
+      </c>
+      <c r="B36" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>2054</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>2055</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.29615223029834664</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1384,29 +1439,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE649B85-6CF3-4E77-B5AD-5FBCEED36443}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1435,7 +1489,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1449,10 +1503,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
-    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0d55314f-45f1-40c9-9fce-63556e193d03">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F74FB0E003A88C4B9D9793633BA4B356" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0b91461ea42f649c0e2a912844849d59">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d55314f-45f1-40c9-9fce-63556e193d03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2dde1a2dc8a4a80923ccdd7c7b3969d3" ns2:_="">
+    <xsd:import namespace="0d55314f-45f1-40c9-9fce-63556e193d03"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1461,18 +1533,15 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1480,7 +1549,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0d55314f-45f1-40c9-9fce-63556e193d03" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1493,26 +1562,33 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
@@ -1525,58 +1601,14 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1589,8 +1621,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1679,23 +1711,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02094605-7544-4CAB-9E33-B0E1A4D3CBB1}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{352985E8-C38C-4E9A-A749-6DA499D91C98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68CA4ECD-35DF-4DAA-9197-0BA18B2B0BC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46BA3091-8491-4ED8-B207-5200896C3E7F}"/>
 </file>
--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
@@ -1449,8 +1449,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694dc5982778b78571808a8a0bab1175">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac46d101c58d29857918b5bc3d6299d1" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
     <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
@@ -1688,8 +1688,18 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02094605-7544-4CAB-9E33-B0E1A4D3CBB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7AD0489-6E03-4C33-BD6E-AFC400F0E9D0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1698,4 +1708,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CBB2720-7767-4955-90D2-BA9E400648C1}"/>
 </file>